--- a/medicine/Psychotrope/Fêtes_de_la_vigne/Fêtes_de_la_vigne.xlsx
+++ b/medicine/Psychotrope/Fêtes_de_la_vigne/Fêtes_de_la_vigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%AAtes_de_la_vigne</t>
+          <t>Fêtes_de_la_vigne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fêtes de la vigne ou Folkloriades Internationales est un festival traditionnel de danses folkloriques régionales bourguignonnes autour du vin de Bourgogne ayant lieu tous les deux ans à Dijon et quelques autres communes de côte d'Or, durant la dernière semaine complète d'aout. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%AAtes_de_la_vigne</t>
+          <t>Fêtes_de_la_vigne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'idée fut instituée en 1946 par le Chanoine Kir (ancien maire de Dijon), revenu d'un voyage en Suisse au cours duquel il a assisté à la fête des vendanges de Neuchâtel. C'est Robert Levavasseur, entrepreneur local, qui crée les Fêtes de la Vigne et son comité d'organisation, "Le Comité Bourgogne".
 La première édition des Fêtes de la Vigne se déroule essentiellement place François-Rude ou place du Bareuzai autour de la fontaine dite du Bareuzai. L'eau fut remplacée par du vin et l'animation de l'évènement fut confiée à des groupes régionalistes de Bourgogne.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%AAtes_de_la_vigne</t>
+          <t>Fêtes_de_la_vigne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le centre piétonnier de Dijon sont organisées de nombreuses animations autour du vin de Bourgogne : dégustations, artisanat, spectacles, danses folkloriques avec une dizaine de groupes de danses folkloriques locales et de nombreux groupes invités de régions françaises et étrangères.
 </t>
